--- a/evm_doc/项目变更内容.xlsx
+++ b/evm_doc/项目变更内容.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12360" tabRatio="917"/>
+    <workbookView windowWidth="14620" windowHeight="7440" tabRatio="917"/>
   </bookViews>
   <sheets>
     <sheet name="总计" sheetId="1" r:id="rId1"/>
@@ -177,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -230,10 +230,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,6 +251,64 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,14 +321,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,73 +343,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -352,7 +352,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,7 +373,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +427,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,13 +493,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,79 +529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,43 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,17 +656,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,7 +708,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,6 +728,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -705,54 +753,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -761,10 +761,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,133 +773,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,6 +1020,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1054,7 +1059,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5264785" cy="1247775"/>
+          <a:ext cx="4864735" cy="1292225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1095,8 +1100,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1714500"/>
-          <a:ext cx="3994785" cy="3851275"/>
+          <a:off x="0" y="1778000"/>
+          <a:ext cx="3709035" cy="3990975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1143,7 +1148,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="635" y="635"/>
-          <a:ext cx="10104755" cy="4304665"/>
+          <a:ext cx="9304655" cy="4463415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1190,7 +1195,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11857355" cy="5314315"/>
+          <a:ext cx="10885805" cy="5504815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1237,7 +1242,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12047855" cy="4685665"/>
+          <a:ext cx="11076305" cy="4857115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1284,7 +1289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="635" y="66675"/>
-          <a:ext cx="11838305" cy="7181215"/>
+          <a:ext cx="10866755" cy="7447915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1331,7 +1336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11790680" cy="4066540"/>
+          <a:ext cx="10819130" cy="4212590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1358,7 +1363,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>666115</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>27940</xdr:rowOff>
     </xdr:to>
@@ -1377,8 +1382,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="171450"/>
-          <a:ext cx="7524115" cy="4142740"/>
+          <a:off x="0" y="177800"/>
+          <a:ext cx="6915150" cy="4295140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1419,8 +1424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="4885690"/>
-          <a:ext cx="8083550" cy="5352415"/>
+          <a:off x="635" y="5063490"/>
+          <a:ext cx="7454900" cy="5549265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1466,8 +1471,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="276860" y="3745230"/>
-          <a:ext cx="5494655" cy="2454910"/>
+          <a:off x="276860" y="3878580"/>
+          <a:ext cx="5037455" cy="2550160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1509,7 +1514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9525" y="9525"/>
-          <a:ext cx="5791200" cy="3333115"/>
+          <a:ext cx="5334000" cy="3453765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1556,7 +1561,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9525" y="9525"/>
-          <a:ext cx="6504940" cy="3645535"/>
+          <a:ext cx="5990590" cy="3778885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1596,7 +1601,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="4457700"/>
+          <a:off x="628650" y="4622800"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1619,7 +1624,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>655955</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
@@ -1638,8 +1643,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="135255" y="3705225"/>
-          <a:ext cx="7378700" cy="3961765"/>
+          <a:off x="135255" y="3838575"/>
+          <a:ext cx="6779895" cy="4107815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1685,8 +1690,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76835" y="2771775"/>
-          <a:ext cx="7604760" cy="4799965"/>
+          <a:off x="76835" y="2873375"/>
+          <a:ext cx="6976110" cy="4977765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1728,7 +1733,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="76200" y="635"/>
-          <a:ext cx="6657340" cy="2637790"/>
+          <a:ext cx="6142990" cy="2733040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1775,7 +1780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5269230" cy="3009265"/>
+          <a:ext cx="4869180" cy="3117215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1816,8 +1821,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="3152775"/>
-          <a:ext cx="7687945" cy="3571240"/>
+          <a:off x="635" y="3267075"/>
+          <a:ext cx="7059295" cy="3704590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1858,8 +1863,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="7105015"/>
-          <a:ext cx="8413750" cy="4333875"/>
+          <a:off x="9525" y="7365365"/>
+          <a:ext cx="7727950" cy="4492625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1900,8 +1905,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="59055" y="11600815"/>
-          <a:ext cx="8408035" cy="3619500"/>
+          <a:off x="59055" y="12026265"/>
+          <a:ext cx="7722235" cy="3752850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1947,8 +1952,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="3771900"/>
-          <a:ext cx="5752465" cy="1751965"/>
+          <a:off x="635" y="3905250"/>
+          <a:ext cx="5295265" cy="1821815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1990,7 +1995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10160" y="9525"/>
-          <a:ext cx="6266180" cy="3514725"/>
+          <a:ext cx="5751830" cy="3641725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2036,8 +2041,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="3668395"/>
-          <a:ext cx="7580630" cy="2807970"/>
+          <a:off x="635" y="3801745"/>
+          <a:ext cx="6951980" cy="2909570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2079,7 +2084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7409815" cy="3437890"/>
+          <a:ext cx="6838315" cy="3564890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2125,8 +2130,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="5323840"/>
-          <a:ext cx="8145145" cy="2533650"/>
+          <a:off x="9525" y="5520690"/>
+          <a:ext cx="7516495" cy="2622550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2167,8 +2172,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="171450"/>
-          <a:ext cx="7457440" cy="4676140"/>
+          <a:off x="0" y="177800"/>
+          <a:ext cx="6885940" cy="4847590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2209,8 +2214,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8229600"/>
-          <a:ext cx="6419215" cy="3133090"/>
+          <a:off x="0" y="8534400"/>
+          <a:ext cx="5904865" cy="3247390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2251,8 +2256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="11658600"/>
-          <a:ext cx="8091170" cy="4638040"/>
+          <a:off x="9525" y="12090400"/>
+          <a:ext cx="7462520" cy="4809490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2293,8 +2298,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="16154400"/>
-          <a:ext cx="6257290" cy="3142615"/>
+          <a:off x="635" y="16751300"/>
+          <a:ext cx="5742940" cy="3256915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2335,8 +2340,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="20068540"/>
-          <a:ext cx="7781290" cy="5791200"/>
+          <a:off x="9525" y="20811490"/>
+          <a:ext cx="7152640" cy="6000750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2377,8 +2382,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="25593675"/>
-          <a:ext cx="7153910" cy="5238115"/>
+          <a:off x="635" y="26539825"/>
+          <a:ext cx="6582410" cy="5428615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2425,7 +2430,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6200140" cy="3295015"/>
+          <a:ext cx="5685790" cy="3415665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2466,8 +2471,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="2760345"/>
-          <a:ext cx="9020175" cy="6735445"/>
+          <a:off x="635" y="2861945"/>
+          <a:ext cx="8277225" cy="6983095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2764,27 +2769,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D23"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="50.375" customWidth="1"/>
+    <col min="1" max="1" width="17.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="50.3727272727273" customWidth="1"/>
     <col min="3" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:4">
+    <row r="1" ht="17.5" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2798,7 +2802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:4">
+    <row r="2" ht="17.5" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3296,7 +3300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3304,7 +3308,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3314,7 +3318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3322,7 +3326,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3331,7 +3335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3339,7 +3343,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3348,7 +3352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3356,7 +3360,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3365,7 +3369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3373,7 +3377,7 @@
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3382,7 +3386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3390,7 +3394,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3399,7 +3403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3407,7 +3411,7 @@
       <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3416,7 +3420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3424,7 +3428,7 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3433,7 +3437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3441,7 +3445,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3450,7 +3454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3458,7 +3462,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3467,7 +3471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3475,7 +3479,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3484,7 +3488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3492,7 +3496,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3501,7 +3505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3509,7 +3513,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3518,7 +3522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3526,7 +3530,7 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3535,7 +3539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A211"/>
   <sheetViews>
@@ -3543,7 +3547,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="211" spans="1:1">
       <c r="A211" s="1"/>
